--- a/prep_data/2025_punt-returns_defense.xlsx
+++ b/prep_data/2025_punt-returns_defense.xlsx
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
-        <v>3.8</v>
+        <v>4.09</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
         <v>11</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="3">
@@ -518,19 +518,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E3" t="n">
-        <v>6.72</v>
+        <v>6.55</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
         <v>17</v>
@@ -539,69 +539,69 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="E4" t="n">
-        <v>6.92</v>
+        <v>6.76</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.9</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="E5" t="n">
-        <v>6.95</v>
+        <v>6.93</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>11.2</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="6">
@@ -611,16 +611,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="E6" t="n">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
         <v>16</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="7">
@@ -642,19 +642,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E7" t="n">
-        <v>7.5</v>
+        <v>7.05</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>35</v>
@@ -663,193 +663,193 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>11.5</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="E8" t="n">
-        <v>7.83</v>
+        <v>7.33</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>13.8</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="E9" t="n">
-        <v>8.279999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="E10" t="n">
-        <v>8.5</v>
+        <v>7.52</v>
       </c>
       <c r="F10" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="E11" t="n">
-        <v>8.76</v>
+        <v>9.09</v>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>11.5</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E12" t="n">
-        <v>9.289999999999999</v>
+        <v>9.18</v>
       </c>
       <c r="F12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="E13" t="n">
-        <v>9.32</v>
+        <v>9.31</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>22.2</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="14">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
         <v>23</v>
@@ -871,7 +871,7 @@
         <v>9.52</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G14" t="n">
         <v>21</v>
@@ -880,162 +880,162 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>16.8</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>240</v>
+        <v>338</v>
       </c>
       <c r="E15" t="n">
-        <v>9.6</v>
+        <v>9.94</v>
       </c>
       <c r="F15" t="n">
         <v>19</v>
       </c>
       <c r="G15" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>18.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c r="E16" t="n">
-        <v>10.37</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>15.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="E17" t="n">
-        <v>10.64</v>
+        <v>10.09</v>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>20.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="E18" t="n">
-        <v>10.65</v>
+        <v>10.31</v>
       </c>
       <c r="F18" t="n">
         <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>21.3</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="E19" t="n">
-        <v>10.68</v>
+        <v>10.64</v>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G19" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>23</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="20">
@@ -1045,16 +1045,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="E20" t="n">
-        <v>10.76</v>
+        <v>10.74</v>
       </c>
       <c r="F20" t="n">
         <v>16</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>17.4</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="21">
@@ -1076,19 +1076,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="E21" t="n">
-        <v>10.95</v>
+        <v>11.19</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21" t="n">
         <v>95</v>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>16.8</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="22">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
         <v>19</v>
@@ -1128,348 +1128,348 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>16.7</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="E23" t="n">
-        <v>12.55</v>
+        <v>12.48</v>
       </c>
       <c r="F23" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>19.3</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
         <v>21</v>
       </c>
       <c r="D24" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E24" t="n">
-        <v>12.57</v>
+        <v>12.52</v>
       </c>
       <c r="F24" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G24" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>20.3</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="E25" t="n">
-        <v>12.63</v>
+        <v>12.55</v>
       </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>18.5</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B26" t="n">
+        <v>15</v>
+      </c>
+      <c r="C26" t="n">
+        <v>23</v>
+      </c>
+      <c r="D26" t="n">
+        <v>300</v>
+      </c>
+      <c r="E26" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="F26" t="n">
         <v>13</v>
       </c>
-      <c r="C26" t="n">
+      <c r="G26" t="n">
+        <v>87</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>20</v>
-      </c>
-      <c r="D26" t="n">
-        <v>262</v>
-      </c>
-      <c r="E26" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
-      </c>
-      <c r="G26" t="n">
-        <v>43</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>20.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D27" t="n">
-        <v>293</v>
+        <v>475</v>
       </c>
       <c r="E27" t="n">
-        <v>13.32</v>
+        <v>13.19</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>22.5</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>423</v>
+        <v>369</v>
       </c>
       <c r="E28" t="n">
-        <v>13.65</v>
+        <v>13.67</v>
       </c>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>32.5</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D29" t="n">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="E29" t="n">
-        <v>14.25</v>
+        <v>14.33</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>17.5</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="E30" t="n">
-        <v>14.91</v>
+        <v>14.68</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>25.2</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E31" t="n">
-        <v>15.41</v>
+        <v>14.72</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G31" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>20.2</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="E32" t="n">
-        <v>15.59</v>
+        <v>15.53</v>
       </c>
       <c r="F32" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G32" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>20.4</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="E33" t="n">
-        <v>15.67</v>
+        <v>16.26</v>
       </c>
       <c r="F33" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G33" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>18.1</v>
+        <v>20.6</v>
       </c>
     </row>
   </sheetData>
